--- a/data/trans_dic/P20D1_R_2023-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P20D1_R_2023-Clase-trans_dic.xlsx
@@ -587,7 +587,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.02875492370616539</v>
+        <v>0.03337929976247797</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2288328551639879</v>
+        <v>0.2468235521195758</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.8350803469974221</v>
+        <v>0.8395021432720992</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.3114393320404371</v>
+        <v>0.3140331286821264</v>
       </c>
     </row>
     <row r="7">
@@ -637,10 +637,10 @@
       </c>
       <c r="C8" s="5" t="inlineStr"/>
       <c r="D8" s="5" t="n">
-        <v>0.3547000056039351</v>
+        <v>0.36255779564235</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1792860682491893</v>
+        <v>0.1857553848290556</v>
       </c>
     </row>
     <row r="9">
@@ -652,10 +652,10 @@
       </c>
       <c r="C9" s="5" t="inlineStr"/>
       <c r="D9" s="5" t="n">
-        <v>0.8693438607008498</v>
+        <v>0.8735348269601656</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.6148075364273983</v>
+        <v>0.6246276441562337</v>
       </c>
     </row>
     <row r="10">
@@ -673,7 +673,7 @@
         <v>0.1703825137849371</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.6114720320217095</v>
+        <v>0.6114720320217094</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>0.2632741194046484</v>
@@ -687,13 +687,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.02911917736211482</v>
+        <v>0.02862046257820942</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2309905914081032</v>
+        <v>0.1693512282412269</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1169910318819985</v>
+        <v>0.1168635169251625</v>
       </c>
     </row>
     <row r="12">
@@ -704,13 +704,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.4335014026849833</v>
+        <v>0.4395461269225471</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.9473908589452031</v>
+        <v>1</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.4748492390172137</v>
+        <v>0.4918132208424776</v>
       </c>
     </row>
     <row r="13">
@@ -742,13 +742,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.06216384483388952</v>
+        <v>0.08065552159745987</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.2208160772686317</v>
+        <v>0.2327529708351377</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1723699087925633</v>
+        <v>0.172032818337744</v>
       </c>
     </row>
     <row r="15">
@@ -759,13 +759,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.4529737779975138</v>
+        <v>0.5035523798352174</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.7086952493230745</v>
+        <v>0.7152916574982522</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.495120677832483</v>
+        <v>0.4994135548394678</v>
       </c>
     </row>
     <row r="16">
@@ -800,10 +800,10 @@
         <v>0</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1898592250095646</v>
+        <v>0.1854184824131572</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1339171623352861</v>
+        <v>0.1293171421727981</v>
       </c>
     </row>
     <row r="18">
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.4028819002777389</v>
+        <v>0.3859672746032825</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.5605757288325645</v>
+        <v>0.5732122566515039</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.3916607079741585</v>
+        <v>0.4047291323891534</v>
       </c>
     </row>
     <row r="19">
@@ -838,10 +838,10 @@
         <v>0</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>0.7181750226236278</v>
+        <v>0.7181750226236275</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>0.6859725915318385</v>
+        <v>0.6859725915318383</v>
       </c>
     </row>
     <row r="20">
@@ -853,10 +853,10 @@
       </c>
       <c r="C20" s="5" t="inlineStr"/>
       <c r="D20" s="5" t="n">
-        <v>0.4399786046151423</v>
+        <v>0.4406008583767845</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.4179474398369066</v>
+        <v>0.4109251006734725</v>
       </c>
     </row>
     <row r="21">
@@ -868,10 +868,10 @@
       </c>
       <c r="C21" s="5" t="inlineStr"/>
       <c r="D21" s="5" t="n">
-        <v>0.9350099469087612</v>
+        <v>0.9425498412917512</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.921104772848655</v>
+        <v>0.9167978820300706</v>
       </c>
     </row>
     <row r="22">
@@ -886,13 +886,13 @@
         </is>
       </c>
       <c r="C22" s="5" t="n">
-        <v>0.1280014271240324</v>
+        <v>0.1280014271240325</v>
       </c>
       <c r="D22" s="5" t="n">
         <v>0.5261658762206326</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.3060501894468869</v>
+        <v>0.306050189446887</v>
       </c>
     </row>
     <row r="23">
@@ -903,13 +903,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.06895801508824635</v>
+        <v>0.06923515605625745</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.4108621732254649</v>
+        <v>0.4080388066153671</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.2331857158195094</v>
+        <v>0.2331077342888032</v>
       </c>
     </row>
     <row r="24">
@@ -920,13 +920,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.2240352116699997</v>
+        <v>0.2294678950273249</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.6506844006877702</v>
+        <v>0.6523472263698137</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.3965511463075528</v>
+        <v>0.4030053376582154</v>
       </c>
     </row>
     <row r="25">
@@ -1076,7 +1076,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>509</v>
+        <v>591</v>
       </c>
     </row>
     <row r="7">
@@ -1087,13 +1087,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>3186</v>
+        <v>3437</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>3156</v>
+        <v>3172</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>5514</v>
+        <v>5560</v>
       </c>
     </row>
     <row r="8">
@@ -1143,10 +1143,10 @@
       </c>
       <c r="C10" s="6" t="inlineStr"/>
       <c r="D10" s="6" t="n">
-        <v>3476</v>
+        <v>3553</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>3140</v>
+        <v>3254</v>
       </c>
     </row>
     <row r="11">
@@ -1158,10 +1158,10 @@
       </c>
       <c r="C11" s="6" t="inlineStr"/>
       <c r="D11" s="6" t="n">
-        <v>8519</v>
+        <v>8560</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>10769</v>
+        <v>10941</v>
       </c>
     </row>
     <row r="12">
@@ -1210,13 +1210,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>1088</v>
+        <v>798</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>2617</v>
+        <v>2614</v>
       </c>
     </row>
     <row r="15">
@@ -1227,13 +1227,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>7655</v>
+        <v>7762</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>4463</v>
+        <v>4711</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>10622</v>
+        <v>11002</v>
       </c>
     </row>
     <row r="16">
@@ -1282,13 +1282,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>897</v>
+        <v>1164</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>2326</v>
+        <v>2452</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>4304</v>
+        <v>4295</v>
       </c>
     </row>
     <row r="19">
@@ -1299,13 +1299,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>6539</v>
+        <v>7269</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>7465</v>
+        <v>7535</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>12363</v>
+        <v>12470</v>
       </c>
     </row>
     <row r="20">
@@ -1357,10 +1357,10 @@
         <v>0</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>2949</v>
+        <v>2880</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>3950</v>
+        <v>3814</v>
       </c>
     </row>
     <row r="23">
@@ -1371,13 +1371,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>5624</v>
+        <v>5388</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>8709</v>
+        <v>8905</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>11552</v>
+        <v>11937</v>
       </c>
     </row>
     <row r="24">
@@ -1427,10 +1427,10 @@
       </c>
       <c r="C26" s="6" t="inlineStr"/>
       <c r="D26" s="6" t="n">
-        <v>4756</v>
+        <v>4762</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>4729</v>
+        <v>4650</v>
       </c>
     </row>
     <row r="27">
@@ -1442,10 +1442,10 @@
       </c>
       <c r="C27" s="6" t="inlineStr"/>
       <c r="D27" s="6" t="n">
-        <v>10107</v>
+        <v>10188</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>10423</v>
+        <v>10374</v>
       </c>
     </row>
     <row r="28">
@@ -1494,13 +1494,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>4703</v>
+        <v>4722</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>22666</v>
+        <v>22511</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>28768</v>
+        <v>28759</v>
       </c>
     </row>
     <row r="31">
@@ -1511,13 +1511,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>15280</v>
+        <v>15650</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>35897</v>
+        <v>35989</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>48923</v>
+        <v>49719</v>
       </c>
     </row>
     <row r="32">
